--- a/medicine/Enfance/Frode_Grytten/Frode_Grytten.xlsx
+++ b/medicine/Enfance/Frode_Grytten/Frode_Grytten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frode Grytten, né le 11 décembre 1960 à Bergen, est un écrivain et journaliste norvégien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Journaliste de profession, il amorce sa carrière d'écrivain en 1983 par la publication de Start, un recueil de poèmes. À partir de 1986, il signe plusieurs recueils de nouvelles, dont une bonne part appartient au genre policier.
 Il obtient le prix Brage en 1999 pour Les Contes de Murboligen (Bikubesong), un roman choral, et le Prix Riverton du meilleur roman policier 2005 pour Ne réveillez pas l’ours qui dort (Flytande bjørn), un récit évoquant le racisme dans une petite ville industrielle de Norvège.
@@ -546,10 +560,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-Start (1983)
-Recueils de nouvelles
-Dans som en sommerfugl, stikk som en bie (1986)
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Start (1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frode_Grytten</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frode_Grytten</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans som en sommerfugl, stikk som en bie (1986)
 Langdistansesvømmar (1990)
 80° aust for Birdland (1993)
 Meir enn regn (1995)
@@ -559,50 +612,154 @@
 Sjuk av lykke (2006)
 Rom ved havet, rom i byen (2007), nouvelles inspirées par l'œuvre du peintre américain Edward Hopper
 Noveller i samling (2009)
-Vente på fuglen (2014)
-Romans
-Bikubesong (1999) - Prix Brage 1999 Publié en français sous le titre Les Contes de Murboligen, traduit par Céline Romand-Monnier, Paris, Éditions Denoël, coll. « Denoël &amp; d'ailleurs », 2005, 371 p.  (ISBN 2-207-25741-X)
+Vente på fuglen (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frode_Grytten</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frode_Grytten</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bikubesong (1999) - Prix Brage 1999 Publié en français sous le titre Les Contes de Murboligen, traduit par Céline Romand-Monnier, Paris, Éditions Denoël, coll. « Denoël &amp; d'ailleurs », 2005, 371 p.  (ISBN 2-207-25741-X)
 Flytande bjørn (2005) - Prix Riverton du meilleur roman policier Publié en français sous le titre Ne réveillez pas l’ours qui dort, traduit par Céline Romand-Monnier, Paris, Éditions Denoël, coll. « Denoël &amp; d'ailleurs », 2008, 285 p.  (ISBN 978-2-207-25919-1)
 Saganatt (2011)
-Brenn huset ned (2013) Publié en français sous le titre Incandescents, traduit par Céline Romand-Monnier, Paris, Éditions Buchet/Chastel, 2015, 192 p.  (ISBN 978-2-283-02803-2)
-Ouvrages de littérature d'enfance et de jeunesse
-Frosken Vertigo og det store spranget (1999)
+Brenn huset ned (2013) Publié en français sous le titre Incandescents, traduit par Céline Romand-Monnier, Paris, Éditions Buchet/Chastel, 2015, 192 p.  (ISBN 978-2-283-02803-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frode_Grytten</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frode_Grytten</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Frosken Vertigo og det store spranget (1999)
 Urmakar Pisani og paradisfuglane (2003)
 Hull &amp; sønn (2004)
 Gabba gabba hey! (2008)
-Hallo? (2008)
-Autres publications
-Dublin (2002)
+Hallo? (2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frode_Grytten</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frode_Grytten</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dublin (2002)
 Det norske huset (2009)
 50/50 (2010), essais</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Frode_Grytten</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Frode_Grytten</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2000 : 80 grader aust for Birdland, film norvégien réalisé par Sølvi A. Lindseth, d'après la nouvelle éponyme de Frode Grytten</t>
         </is>
